--- a/output/google_maps_data_Sleman_Traditional_Market.xlsx
+++ b/output/google_maps_data_Sleman_Traditional_Market.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>-7.702292</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.702292</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.348347</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Sleman+Baru/@-7.7022924,110.2762489,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5f45d6ce7e91:0x342ee32a17ff43bb!8m2!3d-7.7022924!4d110.3483467!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk1hMW8zYUdGM0VBReABAPoBBAgAEEE!16s%2Fg%2F11crydckrs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Sleman+Baru/@-7.7022924,110.2762489,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5f45d6ce7e91:0x342ee32a17ff43bb!8m2!3d-7.7022924!4d110.3483467!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk1hMW8zYUdGM0VBReABAPoBBAgAEEE!16s%2Fg%2F11crydckrs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -540,25 +534,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.730574</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.730574</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.331355</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Cebongan/@-7.7022924,110.2762489,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a58a7c2d80f4f:0x59d5c1eb7e614f18!8m2!3d-7.7305736!4d110.3313549!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVkMGw1UTJGM0VBReABAPoBBAhjEEY!16s%2Fg%2F1pzrfjm1r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Cebongan/@-7.7022924,110.2762489,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a58a7c2d80f4f:0x59d5c1eb7e614f18!8m2!3d-7.7305736!4d110.3313549!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVkMGw1UTJGM0VBReABAPoBBAhjEEY!16s%2Fg%2F1pzrfjm1r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -577,25 +570,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.701509</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.701509</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.34733</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sleman+Unit+I/@-7.7022924,110.2762489,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5f4435911833:0xdfb5cb78547ce1c5!8m2!3d-7.7015089!4d110.3473302!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkhhMXBFYmtWbkVBReABAPoBBAgAEBw!16s%2Fg%2F11b66g3qwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sleman+Unit+I/@-7.7022924,110.2762489,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5f4435911833:0xdfb5cb78547ce1c5!8m2!3d-7.7015089!4d110.3473302!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkhhMXBFYmtWbkVBReABAPoBBAgAEBw!16s%2Fg%2F11b66g3qwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -614,25 +606,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.761345</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.761345</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.362834</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kutu/@-7.7022924,110.2762489,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a585bc84c16d3:0x7c8ec8b1852ab648!8m2!3d-7.7613449!4d110.3628336!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVjbk5NZWxabkVBReABAPoBBAgAECc!16s%2Fg%2F11b77m8kkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kutu/@-7.7022924,110.2762489,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a585bc84c16d3:0x7c8ec8b1852ab648!8m2!3d-7.7613449!4d110.3628336!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVjbk5NZWxabkVBReABAPoBBAgAECc!16s%2Fg%2F11b77m8kkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -651,25 +642,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>-7.646659</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.646659</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.324594</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tempel/@-7.6466591,110.2524966,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af55bd471c2f9:0x5df7c8fc6cba9a53!8m2!3d-7.6466591!4d110.3245944!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11dzt54m_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tempel/@-7.6466591,110.2524966,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af55bd471c2f9:0x5df7c8fc6cba9a53!8m2!3d-7.6466591!4d110.3245944!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11dzt54m_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -692,25 +682,24 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>-7.745312</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.745312</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.389008</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kolombo/@-7.745312,110.3169102,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59057328cd31:0x47d77765c4ada76b!8m2!3d-7.745312!4d110.389008!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F1pzsyx2yf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kolombo/@-7.745312,110.3169102,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59057328cd31:0x47d77765c4ada76b!8m2!3d-7.745312!4d110.389008!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F1pzsyx2yf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -729,25 +718,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.800421</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.800421</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.324007</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gamping+Sleman/@-7.8004209,110.2519091,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af9b2700a92cf:0x204add1214fabe!8m2!3d-7.8004209!4d110.3240069!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRMV0Z5T0hSQlJSQULgAQD6AQQIcRBD!16s%2Fg%2F11qq_pvwbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gamping+Sleman/@-7.8004209,110.2519091,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af9b2700a92cf:0x204add1214fabe!8m2!3d-7.8004209!4d110.3240069!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRMV0Z5T0hSQlJSQULgAQD6AQQIcRBD!16s%2Fg%2F11qq_pvwbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -766,25 +754,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.759961</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.759961</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.407082</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Condong+Catur/@-7.7599614,110.3349844,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59a0ffffffff:0xfd3b59e2b8bfcaa6!8m2!3d-7.7599614!4d110.4070822!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlNNalpoU1ZaQkVBReABAPoBBAhuEDU!16s%2Fg%2F1pzs6k5z1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Condong+Catur/@-7.7599614,110.3349844,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59a0ffffffff:0xfd3b59e2b8bfcaa6!8m2!3d-7.7599614!4d110.4070822!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlNNalpoU1ZaQkVBReABAPoBBAhuEDU!16s%2Fg%2F1pzs6k5z1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -807,25 +794,24 @@
           <t>(0274) 869229</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-7.755668</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.755668</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.339264</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Jambon+Trihanggo/@-7.7556685,110.2671666,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a58877a8ab77f:0x7587cb7a6ebeec0f!8m2!3d-7.7556685!4d110.3392644!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9iblkzVkdGbkVBReABAPoBBAhEED4!16s%2Fg%2F11c4bgp_v7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Jambon+Trihanggo/@-7.7556685,110.2671666,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a58877a8ab77f:0x7587cb7a6ebeec0f!8m2!3d-7.7556685!4d110.3392644!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9iblkzVkdGbkVBReABAPoBBAhEED4!16s%2Fg%2F11c4bgp_v7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -844,25 +830,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.769888</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.769888</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.468883</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kalasan/@-7.7698882,110.3967847,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5a57188d57b7:0xfcd5c7f6119da3c!8m2!3d-7.7698882!4d110.4688825!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkRiMWw2ZEVOM0VBReABAPoBBAhCEEI!16s%2Fg%2F11b7y7x5hw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kalasan/@-7.7698882,110.3967847,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5a57188d57b7:0xfcd5c7f6119da3c!8m2!3d-7.7698882!4d110.4688825!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkRiMWw2ZEVOM0VBReABAPoBBAhCEEI!16s%2Fg%2F11b7y7x5hw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -881,25 +866,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.760892</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.760892</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.432355</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Stan+Maguwoharjo/@-7.7608925,110.360257,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5b5074ba9745:0x53d63b424594fe0d!8m2!3d-7.7608925!4d110.4323548!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11h4qj69fk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Stan+Maguwoharjo/@-7.7608925,110.360257,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5b5074ba9745:0x53d63b424594fe0d!8m2!3d-7.7608925!4d110.4323548!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11h4qj69fk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -918,25 +902,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>-7.710054</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.710054</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.387368</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Rejodani/@-7.7100537,110.3152697,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5ed3aa555ebd:0x93f431abfc7239e9!8m2!3d-7.7100537!4d110.3873675!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9NMlZIZW1wM1JSQULgAQD6AQUIlAEQOA!16s%2Fg%2F11b5yvhh30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Rejodani/@-7.7100537,110.3152697,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5ed3aa555ebd:0x93f431abfc7239e9!8m2!3d-7.7100537!4d110.3873675!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9NMlZIZW1wM1JSQULgAQD6AQUIlAEQOA!16s%2Fg%2F11b5yvhh30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -959,25 +942,24 @@
           <t>0882-3304-3615</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>-7.780264</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.780264</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.337461</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Telogorejo/@-7.7802642,110.2653628,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59d31486f8db:0xe6198e92405b4528!8m2!3d-7.7802642!4d110.3374606!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRhVXB4VjBwUkVBReABAPoBBQiIARA-!16s%2Fg%2F11m21cw5tw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Telogorejo/@-7.7802642,110.2653628,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59d31486f8db:0xe6198e92405b4528!8m2!3d-7.7802642!4d110.3374606!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRhVXB4VjBwUkVBReABAPoBBQiIARA-!16s%2Fg%2F11m21cw5tw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -996,25 +978,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.72562</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.72562</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.233361</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kebonagung+%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A7%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80%EA%A6%B2%EA%A6%92%EA%A6%B8%EA%A6%81/@-7.7256195,110.1612629,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af153632ec7b3:0x90f68203e466d450!8m2!3d-7.7256195!4d110.2333607!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNhV0V5VFhGQlJSQULgAQD6AQQILBAq!16s%2Fg%2F11c5bm5m9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kebonagung+%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A7%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80%EA%A6%B2%EA%A6%92%EA%A6%B8%EA%A6%81/@-7.7256195,110.1612629,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af153632ec7b3:0x90f68203e466d450!8m2!3d-7.7256195!4d110.2333607!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNhV0V5VFhGQlJSQULgAQD6AQQILBAq!16s%2Fg%2F11c5bm5m9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1033,25 +1014,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.660146</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.660146</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.339729</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngemplak/@-7.6601462,110.2676313,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5f8ef5c75e09:0xc6cef37589065dd3!8m2!3d-7.6601462!4d110.3397291!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRNa3h0VG1KM0VBReABAPoBBAgAECo!16s%2Fg%2F11c6q6_p8d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngemplak/@-7.6601462,110.2676313,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5f8ef5c75e09:0xc6cef37589065dd3!8m2!3d-7.6601462!4d110.3397291!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRNa3h0VG1KM0VBReABAPoBBAgAECo!16s%2Fg%2F11c6q6_p8d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1074,25 +1054,24 @@
           <t>(0274) 2807282</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.780685</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.780685</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.400094</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gowok+(Pasar+Caturtunggal)/@-7.7806851,110.3279957,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59c24ff98bf9:0xf09d244e9825a526!8m2!3d-7.7806851!4d110.4000935!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhjRGhJUnpSQlJSQULgAQD6AQQIGhAm!16s%2Fg%2F11b88vgxtw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gowok+(Pasar+Caturtunggal)/@-7.7806851,110.3279957,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59c24ff98bf9:0xf09d244e9825a526!8m2!3d-7.7806851!4d110.4000935!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhjRGhJUnpSQlJSQULgAQD6AQQIGhAm!16s%2Fg%2F11b88vgxtw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1111,25 +1090,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>-7.665056</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.665056</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.419736</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pakem/@-7.6650556,110.3476383,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5e7c049210ed:0x7fb367cdf320e108!8m2!3d-7.6650556!4d110.4197361!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnROalJ1ZW1OM0VBReABAPoBBAgAEC8!16s%2Fg%2F1pzxkm7s0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pakem/@-7.6650556,110.3476383,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5e7c049210ed:0x7fb367cdf320e108!8m2!3d-7.6650556!4d110.4197361!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnROalJ1ZW1OM0VBReABAPoBBAgAEC8!16s%2Fg%2F1pzxkm7s0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1148,25 +1126,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.1</v>
+        <v>-7.752458</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.752458</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.227681</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sembuhan/@-7.7524585,110.1555833,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af12e396e50cd:0xbc5730e5c74905fc!8m2!3d-7.7524585!4d110.2276811!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxhRXBQZVVsQkVBReABAPoBBAgAEDA!16s%2Fg%2F11c3287p_j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sembuhan/@-7.7524585,110.1555833,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af12e396e50cd:0xbc5730e5c74905fc!8m2!3d-7.7524585!4d110.2276811!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxhRXBQZVVsQkVBReABAPoBBAgAEDA!16s%2Fg%2F11c3287p_j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1185,25 +1162,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-7.716043</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.716043</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.262361</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Semprong/@-7.7524585,110.1555833,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af421aa0a4e1b:0xac68012f80014fbc!8m2!3d-7.7160431!4d110.2623614!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBaMUJVVUhaUlJSQULgAQD6AQQIABAl!16s%2Fg%2F11ckvvh0lt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Semprong/@-7.7524585,110.1555833,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af421aa0a4e1b:0xac68012f80014fbc!8m2!3d-7.7160431!4d110.2623614!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBaMUJVVUhaUlJSQULgAQD6AQQIABAl!16s%2Fg%2F11ckvvh0lt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1222,25 +1198,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>-7.719507</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.719507</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.36046</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Denggung/@-7.719507,110.2883621,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a58c956b0f71d:0xba44b848774c8723!8m2!3d-7.719507!4d110.3604599!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUllhRXRpUkU5QkVBReABAPoBBAgAEDI!16s%2Fg%2F11ckfkh2sj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Denggung/@-7.719507,110.2883621,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a58c956b0f71d:0xba44b848774c8723!8m2!3d-7.719507!4d110.3604599!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUllhRXRpUkU5QkVBReABAPoBBAgAEDI!16s%2Fg%2F11ckfkh2sj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -1259,25 +1234,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.758406</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.758406</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.251644</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngijon/@-7.7584063,110.1795459,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af793d7649609:0x440b90a584e4a510!8m2!3d-7.7584063!4d110.2516437!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnVNMWwxYjBsbkVBReABAPoBBAgAEDo!16s%2Fg%2F11h3k750ds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngijon/@-7.7584063,110.1795459,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af793d7649609:0x440b90a584e4a510!8m2!3d-7.7584063!4d110.2516437!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnVNMWwxYjBsbkVBReABAPoBBAgAEDo!16s%2Fg%2F11h3k750ds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1296,25 +1270,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.3</v>
+        <v>-7.748579</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.748579</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.270757</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Klewonan/@-7.7584063,110.1795459,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af6efe4e0ceab:0x6f274477dd359d94!8m2!3d-7.7485793!4d110.2707572!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxiR0Z0TUZsM0VBReABAPoBBAgAEC8!16s%2Fg%2F11c1pglwk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Klewonan/@-7.7584063,110.1795459,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af6efe4e0ceab:0x6f274477dd359d94!8m2!3d-7.7485793!4d110.2707572!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxiR0Z0TUZsM0VBReABAPoBBAgAEC8!16s%2Fg%2F11c1pglwk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1341,25 +1314,24 @@
           <t>0818-0428-8400</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>-7.783067</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.783067</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.432371</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sambilegi/@-7.7830666,110.3602728,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5a04a71bbb29:0x5f21bd63de395e27!8m2!3d-7.7830666!4d110.4323706!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm1OSE51ZDJ4UlJSQULgAQD6AQQIABAX!16s%2Fg%2F1pzs29677?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sambilegi/@-7.7830666,110.3602728,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5a04a71bbb29:0x5f21bd63de395e27!8m2!3d-7.7830666!4d110.4323706!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm1OSE51ZDJ4UlJSQULgAQD6AQQIABAX!16s%2Fg%2F1pzs29677?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1378,25 +1350,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.783945</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.783945</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.299487</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bibis/@-7.7839446,110.2273888,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af7c6d8afcd07:0xa4a4b8196cbc2cc1!8m2!3d-7.7839446!4d110.2994866!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F1pzrhm1l0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bibis/@-7.7839446,110.2273888,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af7c6d8afcd07:0xa4a4b8196cbc2cc1!8m2!3d-7.7839446!4d110.2994866!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F1pzrhm1l0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1415,25 +1386,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.2</v>
+        <v>-7.806369</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.806369</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.295946</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Balecatur/@-7.7839446,110.2273888,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af82f62561093:0x91c5a55d78c95164!8m2!3d-7.8063689!4d110.2959457!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNkbk16ZVhWblJSQULgAQD6AQQIABA8!16s%2Fg%2F11bywkzxv_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Balecatur/@-7.7839446,110.2273888,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af82f62561093:0x91c5a55d78c95164!8m2!3d-7.8063689!4d110.2959457!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNkbk16ZVhWblJSQULgAQD6AQQIABA8!16s%2Fg%2F11bywkzxv_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1452,25 +1422,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>-7.708153</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.708153</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.4157</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Setom/@-7.7081526,110.3436022,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5eb26da16753:0x11210e2d7d35047b!8m2!3d-7.7081526!4d110.4157!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnljemhQYmkxblJSQULgAQD6AQQIABAP!16s%2Fg%2F11cmzzt8nb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Setom/@-7.7081526,110.3436022,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5eb26da16753:0x11210e2d7d35047b!8m2!3d-7.7081526!4d110.4157!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnljemhQYmkxblJSQULgAQD6AQQIABAP!16s%2Fg%2F11cmzzt8nb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1489,25 +1458,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>-7.700809</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.700809</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.446964</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jangkang/@-7.7081526,110.3436022,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5c0da8192fd1:0xa73a7d79084b5b36!8m2!3d-7.7008093!4d110.446964!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlPR1F5ZEdSbkVBReABAPoBBAgAEC8!16s%2Fg%2F11d_23mqbd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jangkang/@-7.7081526,110.3436022,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5c0da8192fd1:0xa73a7d79084b5b36!8m2!3d-7.7008093!4d110.446964!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlPR1F5ZEdSbkVBReABAPoBBAgAEC8!16s%2Fg%2F11d_23mqbd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1526,25 +1494,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.4</v>
+        <v>-7.766261</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.766261</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.290837</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Godean/@-7.7662612,110.2187396,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af7af22f84bc9:0xe3ae2ef2e91d22f5!8m2!3d-7.7662612!4d110.2908374!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkNOVWsyZUdkM1JSQULgAQD6AQQIXhA1!16s%2Fg%2F1pzrm3vrs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Godean/@-7.7662612,110.2187396,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af7af22f84bc9:0xe3ae2ef2e91d22f5!8m2!3d-7.7662612!4d110.2908374!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkNOVWsyZUdkM1JSQULgAQD6AQQIXhA1!16s%2Fg%2F1pzrm3vrs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -1563,25 +1530,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.805095</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.805095</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.44543</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kuliner+Pasar+Kliwon+(KPK)+Berbah/@-7.8050951,110.3733318,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50bc8afc4065:0xb08ff6e54085666c!8m2!3d-7.8050951!4d110.4454296!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhYMXA1VURaQlJSQULgAQD6AQQIABAT!16s%2Fg%2F11c0r2y3z2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kuliner+Pasar+Kliwon+(KPK)+Berbah/@-7.8050951,110.3733318,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50bc8afc4065:0xb08ff6e54085666c!8m2!3d-7.8050951!4d110.4454296!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhYMXA1VURaQlJSQULgAQD6AQQIABAT!16s%2Fg%2F11c0r2y3z2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1600,25 +1566,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.2</v>
+        <v>-7.708187</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.708187</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.298274</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngino/@-7.7081867,110.2261762,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af5db1d3bf3bd:0x799d7e1ba1e66cc6!8m2!3d-7.7081867!4d110.298274!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhlRGhRY210QlJSQULgAQD6AQQIABAy!16s%2Fg%2F11cjh_cff7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngino/@-7.7081867,110.2261762,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af5db1d3bf3bd:0x799d7e1ba1e66cc6!8m2!3d-7.7081867!4d110.298274!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhlRGhRY210QlJSQULgAQD6AQQIABAy!16s%2Fg%2F11cjh_cff7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1637,25 +1602,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>-7.729961</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.729961</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.452827</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sidorejo+Baru/@-7.7299607,110.3807296,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5b957eac0035:0xe9e0c431fbc34d4b!8m2!3d-7.7299607!4d110.4528274!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXTgAQA!16s%2Fg%2F11b7fx41d3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sidorejo+Baru/@-7.7299607,110.3807296,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5b957eac0035:0xe9e0c431fbc34d4b!8m2!3d-7.7299607!4d110.4528274!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXTgAQA!16s%2Fg%2F11b7fx41d3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1674,25 +1638,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.716648</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.716648</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.271175</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Balangan/@-7.7166481,110.1990767,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af427df54c025:0x9632e556fc4da654!8m2!3d-7.7166481!4d110.2711745!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhhMHQyY3paM1JSQULgAQD6AQQILhBG!16s%2Fg%2F11bccgqgyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Balangan/@-7.7166481,110.1990767,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af427df54c025:0x9632e556fc4da654!8m2!3d-7.7166481!4d110.2711745!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhhMHQyY3paM1JSQULgAQD6AQQILhBG!16s%2Fg%2F11bccgqgyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1711,25 +1674,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>-7.790137</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.790137</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.457613</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tanjung/@-7.7901366,110.3855153,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5a763d086c25:0xc8c2e32106ebc32b!8m2!3d-7.7901366!4d110.4576131!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBPRnB1U1ROQlJSQULgAQD6AQUIywEQOg!16s%2Fg%2F11bzt90s8h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tanjung/@-7.7901366,110.3855153,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5a763d086c25:0xc8c2e32106ebc32b!8m2!3d-7.7901366!4d110.4576131!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBPRnB1U1ROQlJSQULgAQD6AQUIywEQOg!16s%2Fg%2F11bzt90s8h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1748,25 +1710,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.4</v>
+        <v>-7.7671</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.7671</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.33122</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Pundung/@-7.7671004,110.2591223,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5877f913bbe1:0x6ecd8daf2e3f3d5b!8m2!3d-7.7671004!4d110.3312201!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQ5wcm9kdWNlX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT2VIRnVlakJSUlJBQuABAPoBBQiQARBC!16s%2Fg%2F11f10f25w2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1785,25 +1746,24 @@
           <t>0882-1808-4819</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.9</v>
+        <v>-7.748182</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.748182</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.388413</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dapur+kue+mawar+6/@-7.7481817,110.3163155,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5904f9a6dbb9:0xe9c61dea500b8b76!8m2!3d-7.7481817!4d110.3884133!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhjWE54TlhaQlJSQULgAQD6AQQIABAj!16s%2Fg%2F11h84kmlkr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dapur+kue+mawar+6/@-7.7481817,110.3163155,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5904f9a6dbb9:0xe9c61dea500b8b76!8m2!3d-7.7481817!4d110.3884133!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhjWE54TlhaQlJSQULgAQD6AQQIABAj!16s%2Fg%2F11h84kmlkr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1826,25 +1786,24 @@
           <t>0852-1780-6117</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.2</v>
+        <v>-7.741004</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.741004</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.363282</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Platik+Pak+Wito+Pasar+Mlati+Jati/@-7.7481817,110.3163155,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a58eee0cd5e3d:0xc3bfab8ef1ba1b2!8m2!3d-7.7410042!4d110.3632822!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQtzdXBlcm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ2QweEhWRmQzRUFF4AEA-gEECAAQOg!16s%2Fg%2F11c4768cfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Platik+Pak+Wito+Pasar+Mlati+Jati/@-7.7481817,110.3163155,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a58eee0cd5e3d:0xc3bfab8ef1ba1b2!8m2!3d-7.7410042!4d110.3632822!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQtzdXBlcm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ2QweEhWRmQzRUFF4AEA-gEECAAQOg!16s%2Fg%2F11c4768cfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1863,25 +1822,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>-7.70376</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.70376</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.346595</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Klithikan+Dan+Unggas+Sleman+Integrated/@-7.7037603,110.2744974,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5faa57a55d83:0x6dc71aa6a0cfe1d4!8m2!3d-7.7037603!4d110.3465952!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQtmbGVhX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ0xVeGZXamwzUlJBQuABAPoBBAgAEDU!16s%2Fg%2F11gmdwn925?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Klithikan+Dan+Unggas+Sleman+Integrated/@-7.7037603,110.2744974,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5faa57a55d83:0x6dc71aa6a0cfe1d4!8m2!3d-7.7037603!4d110.3465952!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQtmbGVhX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ0xVeGZXamwzUlJBQuABAPoBBAgAEDU!16s%2Fg%2F11gmdwn925?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1900,25 +1858,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>-7.827264</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.827264</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.438156</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pahing+Tegalsari/@-7.8272636,110.3660583,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50da0a99621b:0xb0af322fc4470cd0!8m2!3d-7.8272636!4d110.4381561!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmhPWFZ4UW1WUkVBReABAPoBBAgaEEQ!16s%2Fg%2F11c2ntv8qz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pahing+Tegalsari/@-7.8272636,110.3660583,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50da0a99621b:0xb0af322fc4470cd0!8m2!3d-7.8272636!4d110.4381561!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmhPWFZ4UW1WUkVBReABAPoBBAgaEEQ!16s%2Fg%2F11c2ntv8qz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1937,25 +1894,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>-7.694316</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.694316</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.476059</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jambon+sindumartani/@-7.6943163,110.4039609,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5c89bd2547bf:0x7667b44a5f1d5864!8m2!3d-7.6943163!4d110.4760587!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVPV0ZpWlc5QlJSQULgAQD6AQQIbhA_!16s%2Fg%2F11b6_rlvzn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jambon+sindumartani/@-7.6943163,110.4039609,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5c89bd2547bf:0x7667b44a5f1d5864!8m2!3d-7.6943163!4d110.4760587!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVPV0ZpWlc5QlJSQULgAQD6AQQIbhA_!16s%2Fg%2F11b6_rlvzn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1974,25 +1930,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.2</v>
+        <v>-7.806631</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.806631</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.501922</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kenaran%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A4%EA%A6%AB%EA%A6%A4%EA%A7%80/@-7.806631,110.4298245,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50144899f12b:0xb6d3bc55be6d7599!8m2!3d-7.806631!4d110.5019223!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTklkRFoxTUdWM0VBReABAPoBBAgAECo!16s%2Fg%2F11cn6f_m19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kenaran%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A4%EA%A6%AB%EA%A6%A4%EA%A7%80/@-7.806631,110.4298245,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50144899f12b:0xb6d3bc55be6d7599!8m2!3d-7.806631!4d110.5019223!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTklkRFoxTUdWM0VBReABAPoBBAgAECo!16s%2Fg%2F11cn6f_m19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2011,25 +1966,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.2</v>
+        <v>-7.801799</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.801799</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.32415</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sentral+Umum+Ambarketawang/@-7.8017988,110.2520522,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af81e8c091b59:0x519e82906922b3e1!8m2!3d-7.8017988!4d110.32415!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFNM0ptYjFSbkVBReABAPoBBAgAEBE!16s%2Fg%2F1pzrm4gbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sentral+Umum+Ambarketawang/@-7.8017988,110.2520522,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af81e8c091b59:0x519e82906922b3e1!8m2!3d-7.8017988!4d110.32415!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFNM0ptYjFSbkVBReABAPoBBAgAEBE!16s%2Fg%2F1pzrm4gbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2056,25 +2010,24 @@
           <t>(0274) 6499596</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.4</v>
+        <v>-7.757012</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.757012</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.489149</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Prambanan/@-7.7570122,110.4170514,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5b906da1794b:0x4b78b89063468f82!8m2!3d-7.7570122!4d110.4891492!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRkWEpQZGtwUkVBReABAPoBBAgAEBc!16s%2Fg%2F11h_c8jcjf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Prambanan/@-7.7570122,110.4170514,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5b906da1794b:0x4b78b89063468f82!8m2!3d-7.7570122!4d110.4891492!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRkWEpQZGtwUkVBReABAPoBBAgAEBc!16s%2Fg%2F11h_c8jcjf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -2093,25 +2046,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.2</v>
+        <v>-7.77321</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.77321</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.479064</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Hewan+Pelemsari(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%B2%EA%A6%BA%EA%A6%AE%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%BC%EA%A6%8A%EA%A6%A9%EA%A7%80%EA%A6%B1%EA%A6%AB%EA%A6%B6)/@-7.7570122,110.4170514,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5ba261d881fd:0x8a2136268015d489!8m2!3d-7.7732101!4d110.4790641!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVOM1JYYkhwblJSQULgAQD6AQQIABAo!16s%2Fg%2F11fjx9zr58?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Hewan+Pelemsari(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%B2%EA%A6%BA%EA%A6%AE%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%BC%EA%A6%8A%EA%A6%A9%EA%A7%80%EA%A6%B1%EA%A6%AB%EA%A6%B6)/@-7.7570122,110.4170514,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5ba261d881fd:0x8a2136268015d489!8m2!3d-7.7732101!4d110.4790641!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVOM1JYYkhwblJSQULgAQD6AQQIABAo!16s%2Fg%2F11fjx9zr58?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2134,25 +2086,24 @@
           <t>0818-0404-6530</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.8</v>
+        <v>-7.646928</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.646928</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.337584</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Klangenan/@-7.6469284,110.2654858,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5f229b01e83d:0x8f1f032552442d09!8m2!3d-7.6469284!4d110.3375836!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktkalF6WjNsUlJSQULgAQD6AQQIABAP!16s%2Fg%2F11stxrk5zn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Klangenan/@-7.6469284,110.2654858,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5f229b01e83d:0x8f1f032552442d09!8m2!3d-7.6469284!4d110.3375836!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktkalF6WjNsUlJSQULgAQD6AQQIABAP!16s%2Fg%2F11stxrk5zn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2171,25 +2122,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-7.684671</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.684671</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.419404</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Umbul/@-7.6846711,110.3473066,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5e9befb7bb1d:0x367f7c5be68e3839!8m2!3d-7.6846711!4d110.4194044!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkxlWE4xUVVsUkVBReABAPoBBAgVEBA!16s%2Fg%2F11bxgngyfq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2204,25 +2154,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.5</v>
+        <v>-7.72162</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.72162</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.432856</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Wonosari+Sleman/@-7.6846711,110.3473066,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5b1405256253:0xc02a1fe62e685c7f!8m2!3d-7.7216197!4d110.4328564!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQ5wcm9kdWNlX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWE9UaElaek5SUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11h5w6smfx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2237,25 +2186,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.3</v>
+        <v>-7.780972</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.780972</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.388592</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakul+sayur/@-7.7809722,110.3164942,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59cf16996e03:0xe644d46c16427bcd!8m2!3d-7.7809722!4d110.388592!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjFiWE41TjFaQkVBReABAPoBBQieARAy!16s%2Fg%2F1hm58bccq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakul+sayur/@-7.7809722,110.3164942,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59cf16996e03:0xe644d46c16427bcd!8m2!3d-7.7809722!4d110.388592!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjFiWE41TjFaQkVBReABAPoBBQieARAy!16s%2Fg%2F1hm58bccq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2274,25 +2222,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>-7.719133</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.719133</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.349295</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ndelik+Puri+Mataram/@-7.7191329,110.2771974,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59dd15270f0d:0x9efde27a6e1dfa2d!8m2!3d-7.7191329!4d110.3492952!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhlRFpsYjFObkVBReABAPoBBAgAECk!16s%2Fg%2F11mvm2xqmz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ndelik+Puri+Mataram/@-7.7191329,110.2771974,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a59dd15270f0d:0x9efde27a6e1dfa2d!8m2!3d-7.7191329!4d110.3492952!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhlRFpsYjFObkVBReABAPoBBAgAECk!16s%2Fg%2F11mvm2xqmz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
